--- a/chapter1.xlsx
+++ b/chapter1.xlsx
@@ -5,16 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeandaniel/Documents/numerical_approx_methods/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeandaniel/Documents/GitHub/numerical_approx_methods/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E7D27F0-A6BA-8845-ADF9-A0D1A6B479D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE85839-939F-5E4B-B976-DBAC9F85930C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="1520" windowWidth="28800" windowHeight="17500" xr2:uid="{229481EE-D526-4287-B445-7343DE9ED797}"/>
+    <workbookView xWindow="6040" yWindow="1300" windowWidth="28800" windowHeight="17500" xr2:uid="{229481EE-D526-4287-B445-7343DE9ED797}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Boulder" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="71">
   <si>
     <t>lagrange interpolation</t>
   </si>
@@ -217,27 +216,6 @@
   </si>
   <si>
     <t>y(x)</t>
-  </si>
-  <si>
-    <t>Saturday</t>
-  </si>
-  <si>
-    <t>Sunday</t>
-  </si>
-  <si>
-    <t>Monday</t>
-  </si>
-  <si>
-    <t>Tuesday</t>
-  </si>
-  <si>
-    <t>Wednesday</t>
-  </si>
-  <si>
-    <t>Thursday</t>
-  </si>
-  <si>
-    <t>Friday</t>
   </si>
   <si>
     <t>Approximate for |x| &lt; 1</t>
@@ -5023,335 +5001,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Bould-it road to 60mi</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Boulder!$A$1:$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Saturday</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Sunday</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Monday</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Tuesday</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Wednesday</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Thursday</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Friday</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Boulder!$B$1:$B$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>21.29</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.33</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>16.73</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.71</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>21.27</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>11.44</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4A63-584D-A671-D43C1BB46EDD}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="149909567"/>
-        <c:axId val="149911887"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="149909567"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="149911887"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="149911887"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="21"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="149909567"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="3"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -5672,46 +5321,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -9821,509 +9430,6 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -14078,47 +13184,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E54C3551-8ACB-1B06-100A-B3AF2786A89B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -15561,7 +14626,7 @@
         <v>55</v>
       </c>
       <c r="B138" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -15792,13 +14857,13 @@
     </row>
     <row r="165" spans="2:8">
       <c r="B165" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E165" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="G165" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="166" spans="2:8">
@@ -15809,7 +14874,7 @@
         <v>59</v>
       </c>
       <c r="E166" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G166" t="s">
         <v>1</v>
@@ -15827,7 +14892,7 @@
         <v>-0.99999999997301514</v>
       </c>
       <c r="E167" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="G167">
         <v>-2</v>
@@ -15846,7 +14911,7 @@
         <v>-0.99802718046162175</v>
       </c>
       <c r="E168" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="G168">
         <v>-1.9</v>
@@ -15881,7 +14946,7 @@
         <v>-0.98228854469046911</v>
       </c>
       <c r="E170" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F170">
         <v>1</v>
@@ -15903,7 +14968,7 @@
         <v>-0.96858484192619998</v>
       </c>
       <c r="E171" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="F171">
         <f>SIN(0)</f>
@@ -15926,7 +14991,7 @@
         <v>-0.951058559423407</v>
       </c>
       <c r="E172" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="F172">
         <f>-COS(0)</f>
@@ -15949,7 +15014,7 @@
         <v>-0.92977886573551638</v>
       </c>
       <c r="E173" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F173">
         <f>SIN(0)</f>
@@ -17056,85 +16121,4 @@
   </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFA73656-A101-5C48-979C-2515DF29B127}">
-  <dimension ref="A1:B8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1">
-        <v>21.29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2">
-        <v>8.33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3">
-        <v>16.73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B4">
-        <v>7.71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5">
-        <v>21.27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6">
-        <v>11.44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="B8">
-        <f>SUM(B1:B7)</f>
-        <v>86.77</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/chapter1.xlsx
+++ b/chapter1.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeandaniel/Documents/GitHub/numerical_approx_methods/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE85839-939F-5E4B-B976-DBAC9F85930C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2393D3D7-293C-754E-9681-05F0D9C97922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6040" yWindow="1300" windowWidth="28800" windowHeight="17500" xr2:uid="{229481EE-D526-4287-B445-7343DE9ED797}"/>
+    <workbookView xWindow="4800" yWindow="2300" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{229481EE-D526-4287-B445-7343DE9ED797}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="NewtonRaphson_Taylor" sheetId="1" r:id="rId1"/>
+    <sheet name="RungeKutta" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="95">
   <si>
     <t>lagrange interpolation</t>
   </si>
@@ -250,6 +251,78 @@
   <si>
     <t>Taylor serieas</t>
   </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>dy/dx = -2x^3 - 2xy</t>
+  </si>
+  <si>
+    <t>exact</t>
+  </si>
+  <si>
+    <t>y = 1 - x^2 + c * exp(-x^2)</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>f(x0, y0) * h</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>xN - x0</t>
+  </si>
+  <si>
+    <t>f(x0 + 1/2 h, y0 + 1/2 R2) * h</t>
+  </si>
+  <si>
+    <t>f(x0 + 1/2 h, y0 + 1/2 R1) * h</t>
+  </si>
+  <si>
+    <t>f(x0 + h, y0 + R3) * h</t>
+  </si>
+  <si>
+    <t>y(xN)</t>
+  </si>
+  <si>
+    <t>y0 + 1/6 [R1 + 2* R2 + 2 * R3 + R4]</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>dy/dx = x^2y^2</t>
+  </si>
+  <si>
+    <t>for |x| &lt; 1</t>
+  </si>
+  <si>
+    <t>Evaluate y(0.3)</t>
+  </si>
+  <si>
+    <t>x0</t>
+  </si>
+  <si>
+    <t>y0</t>
+  </si>
+  <si>
+    <t>RK</t>
+  </si>
 </sst>
 </file>
 
@@ -295,12 +368,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -344,7 +420,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$3</c:f>
+              <c:f>NewtonRaphson_Taylor!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -470,7 +546,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$4:$A$8</c:f>
+              <c:f>NewtonRaphson_Taylor!$A$4:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -494,7 +570,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$8</c:f>
+              <c:f>NewtonRaphson_Taylor!$B$4:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -553,7 +629,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$11</c:f>
+              <c:f>NewtonRaphson_Taylor!$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -565,7 +641,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$11</c:f>
+              <c:f>NewtonRaphson_Taylor!$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -865,7 +941,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$24:$A$37</c:f>
+              <c:f>NewtonRaphson_Taylor!$A$24:$A$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -916,7 +992,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$24:$B$37</c:f>
+              <c:f>NewtonRaphson_Taylor!$B$24:$B$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -1002,7 +1078,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$G$32:$G$33</c:f>
+              <c:f>NewtonRaphson_Taylor!$G$32:$G$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1017,7 +1093,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$H$32:$H$33</c:f>
+              <c:f>NewtonRaphson_Taylor!$H$32:$H$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1067,7 +1143,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$G$32:$G$33</c:f>
+              <c:f>NewtonRaphson_Taylor!$G$32:$G$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1082,7 +1158,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$32:$I$33</c:f>
+              <c:f>NewtonRaphson_Taylor!$I$32:$I$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1180,7 +1256,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$32:$D$35</c:f>
+              <c:f>NewtonRaphson_Taylor!$D$32:$D$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1201,7 +1277,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$32:$E$35</c:f>
+              <c:f>NewtonRaphson_Taylor!$E$32:$E$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1472,7 +1548,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$47</c:f>
+              <c:f>NewtonRaphson_Taylor!$B$47</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1505,7 +1581,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$48:$A$52</c:f>
+              <c:f>NewtonRaphson_Taylor!$A$48:$A$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1529,7 +1605,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$48:$B$52</c:f>
+              <c:f>NewtonRaphson_Taylor!$B$48:$B$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1825,7 +1901,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$67</c:f>
+              <c:f>NewtonRaphson_Taylor!$B$67</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1860,7 +1936,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$68:$A$72</c:f>
+              <c:f>NewtonRaphson_Taylor!$A$68:$A$72</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1884,7 +1960,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$68:$B$72</c:f>
+              <c:f>NewtonRaphson_Taylor!$B$68:$B$72</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1945,7 +2021,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$87:$B$91</c:f>
+              <c:f>NewtonRaphson_Taylor!$B$87:$B$91</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1969,7 +2045,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$87:$C$91</c:f>
+              <c:f>NewtonRaphson_Taylor!$C$87:$C$91</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2406,7 +2482,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$97</c:f>
+              <c:f>NewtonRaphson_Taylor!$D$97</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2439,7 +2515,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$98:$C$118</c:f>
+              <c:f>NewtonRaphson_Taylor!$C$98:$C$118</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -2511,7 +2587,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$98:$D$118</c:f>
+              <c:f>NewtonRaphson_Taylor!$D$98:$D$118</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -2618,7 +2694,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$F$98:$F$102</c:f>
+              <c:f>NewtonRaphson_Taylor!$F$98:$F$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2642,7 +2718,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G$98:$G$102</c:f>
+              <c:f>NewtonRaphson_Taylor!$G$98:$G$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2914,7 +2990,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$122</c:f>
+              <c:f>NewtonRaphson_Taylor!$D$122</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2947,7 +3023,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$123:$C$132</c:f>
+              <c:f>NewtonRaphson_Taylor!$C$123:$C$132</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2986,7 +3062,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$123:$D$132</c:f>
+              <c:f>NewtonRaphson_Taylor!$D$123:$D$132</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3312,7 +3388,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$146:$B$162</c:f>
+              <c:f>NewtonRaphson_Taylor!$B$146:$B$162</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -3372,7 +3448,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$146:$C$162</c:f>
+              <c:f>NewtonRaphson_Taylor!$C$146:$C$162</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -3465,7 +3541,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$146:$E$151</c:f>
+              <c:f>NewtonRaphson_Taylor!$E$146:$E$151</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3492,7 +3568,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$146:$F$151</c:f>
+              <c:f>NewtonRaphson_Taylor!$F$146:$F$151</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3853,7 +3929,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$167:$B$267</c:f>
+              <c:f>NewtonRaphson_Taylor!$B$167:$B$267</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -4165,7 +4241,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$167:$C$267</c:f>
+              <c:f>NewtonRaphson_Taylor!$C$167:$C$267</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -4514,7 +4590,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$G$167:$G$207</c:f>
+              <c:f>NewtonRaphson_Taylor!$G$167:$G$207</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -4646,7 +4722,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$H$167:$H$207</c:f>
+              <c:f>NewtonRaphson_Taylor!$H$167:$H$207</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -4957,6 +5033,1175 @@
         </a:p>
       </c:txPr>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>First order linear diff equations</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>c1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>NewtonRaphson_Taylor!$A$275:$A$315</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>NewtonRaphson_Taylor!$B$275:$B$315</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>-2.9816843611112658</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.5829481531336493</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.200836104901013</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.8344237873885165</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.4826952595567007</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.1446007754381358</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.81914157907895468</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.50548047600701096</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.20307224131787818</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.8197279429887143E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.36787944117144233</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.63485806622294105</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.88729242404304842</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.1226263941844161</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.3376763260710312</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.528800783071405</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6921437889662112</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.8239311852712281</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.920789439152323</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9800498337491681</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.9800498337491681</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.920789439152323</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.8239311852712281</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.6921437889662112</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.528800783071405</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.3376763260710312</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.1226263941844161</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.88729242404304842</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.63485806622294105</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.36787944117144233</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.8197279429887143E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.20307224131787818</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.50548047600701096</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.81914157907895468</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-1.1446007754381358</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-1.4826952595567007</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-1.8344237873885165</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-2.200836104901013</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-2.5829481531336493</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-2.9816843611112658</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BEBB-294A-A1CE-407BD9AFCC62}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>c2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>NewtonRaphson_Taylor!$A$275:$A$315</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>NewtonRaphson_Taylor!$C$275:$C$315</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>-3.0183156388887342</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.6370518468663504</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.2791638950989874</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.9455762126114828</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.6373047404433003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.3553992245618642</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.1008584209210448</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.87451952399298938</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.67692775868212174</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.50819727942988746</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.36787944117144233</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.25485806622294116</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.16729242404304867</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.1026263941844161</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-5.7676326071031014E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-2.8800783071404878E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.2143788966211377E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-3.9311852712281548E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-7.8943915232321249E-4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-4.983374916811556E-5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-4.983374916811556E-5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-7.8943915232321249E-4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-3.9311852712281548E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-1.2143788966211377E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-2.8800783071404878E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-5.7676326071031014E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.1026263941844161</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.16729242404304867</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.25485806622294116</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.36787944117144233</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.50819727942988746</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.67692775868212174</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.87451952399298938</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-1.1008584209210448</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-1.3553992245618642</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-1.6373047404433003</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-1.9455762126114828</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-2.2791638950989874</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-2.6370518468663504</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-3.0183156388887342</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BEBB-294A-A1CE-407BD9AFCC62}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>c3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>NewtonRaphson_Taylor!$A$275:$A$315</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>NewtonRaphson_Taylor!$D$275:$D$315</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>-3.0549469166662027</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.691155540599051</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.3574916852969614</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.0567286378344489</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.7919142213298995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.5661976736855929</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.3825752627631349</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.2435585719789679</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.1507832760463652</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.1045918382896622</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.103638323514327</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.1445741986688234</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.2218772721291458</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.3278791825532483</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.453028978213093</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.5864023492142145</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.7164313668986342</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.8317935558136842</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1.9223683174569697</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.9801495012475041</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-1.9801495012475041</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-1.9223683174569697</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-1.8317935558136842</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-1.7164313668986342</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-1.5864023492142145</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-1.453028978213093</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-1.3278791825532483</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-1.2218772721291458</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-1.1445741986688234</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-1.103638323514327</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-1.1045918382896622</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-1.1507832760463652</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-1.2435585719789679</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-1.3825752627631349</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-1.5661976736855929</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-1.7919142213298995</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-2.0567286378344489</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-2.3574916852969614</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-2.691155540599051</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-3.0549469166662027</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BEBB-294A-A1CE-407BD9AFCC62}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2043101615"/>
+        <c:axId val="2043103343"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2043101615"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2"/>
+          <c:min val="-2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2043103343"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2043103343"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2"/>
+          <c:min val="-2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2043101615"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -5321,6 +6566,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -8934,6 +10219,522 @@
 </file>
 
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -13181,6 +14982,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>490483</xdr:colOff>
+      <xdr:row>274</xdr:row>
+      <xdr:rowOff>21021</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>175172</xdr:colOff>
+      <xdr:row>289</xdr:row>
+      <xdr:rowOff>136634</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="19" name="Chart 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A98D8B61-8958-C42B-06D9-BC3D8A9B98EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -13481,10 +15318,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2C2D7D1-C46D-4919-A6D6-8CD9E5C90AB0}">
-  <dimension ref="A1:M267"/>
+  <dimension ref="A1:M315"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A159" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E176" sqref="E176"/>
+    <sheetView topLeftCell="A308" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D275" sqref="D275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -16013,7 +17850,7 @@
         <v>-0.77051689533006074</v>
       </c>
     </row>
-    <row r="257" spans="2:3">
+    <row r="257" spans="1:3">
       <c r="B257">
         <v>2.51328</v>
       </c>
@@ -16022,7 +17859,7 @@
         <v>-0.80902044885023683</v>
       </c>
     </row>
-    <row r="258" spans="2:3">
+    <row r="258" spans="1:3">
       <c r="B258">
         <v>2.5761120000000002</v>
       </c>
@@ -16031,7 +17868,7 @@
         <v>-0.84433115333751241</v>
       </c>
     </row>
-    <row r="259" spans="2:3">
+    <row r="259" spans="1:3">
       <c r="B259">
         <v>2.638944</v>
       </c>
@@ -16040,7 +17877,7 @@
         <v>-0.8763096529216694</v>
       </c>
     </row>
-    <row r="260" spans="2:3">
+    <row r="260" spans="1:3">
       <c r="B260">
         <v>2.7017760000000002</v>
       </c>
@@ -16049,7 +17886,7 @@
         <v>-0.90482974248438774</v>
       </c>
     </row>
-    <row r="261" spans="2:3">
+    <row r="261" spans="1:3">
       <c r="B261">
         <v>2.764608</v>
       </c>
@@ -16058,7 +17895,7 @@
         <v>-0.92977886573551638</v>
       </c>
     </row>
-    <row r="262" spans="2:3">
+    <row r="262" spans="1:3">
       <c r="B262">
         <v>2.8274400000000002</v>
       </c>
@@ -16067,7 +17904,7 @@
         <v>-0.951058559423407</v>
       </c>
     </row>
-    <row r="263" spans="2:3">
+    <row r="263" spans="1:3">
       <c r="B263">
         <v>2.890272</v>
       </c>
@@ -16076,7 +17913,7 @@
         <v>-0.96858484192619998</v>
       </c>
     </row>
-    <row r="264" spans="2:3">
+    <row r="264" spans="1:3">
       <c r="B264">
         <v>2.9531040000000002</v>
       </c>
@@ -16085,7 +17922,7 @@
         <v>-0.98228854469046911</v>
       </c>
     </row>
-    <row r="265" spans="2:3">
+    <row r="265" spans="1:3">
       <c r="B265">
         <v>3.015936</v>
       </c>
@@ -16094,7 +17931,7 @@
         <v>-0.99211558520917709</v>
       </c>
     </row>
-    <row r="266" spans="2:3">
+    <row r="266" spans="1:3">
       <c r="B266">
         <v>3.0787680000000002</v>
       </c>
@@ -16103,7 +17940,7 @@
         <v>-0.99802718046162175</v>
       </c>
     </row>
-    <row r="267" spans="2:3">
+    <row r="267" spans="1:3">
       <c r="B267">
         <v>3.1415999999999999</v>
       </c>
@@ -16112,7 +17949,744 @@
         <v>-0.99999999997301514</v>
       </c>
     </row>
+    <row r="270" spans="1:3">
+      <c r="A270" t="s">
+        <v>71</v>
+      </c>
+      <c r="B270" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271" t="s">
+        <v>73</v>
+      </c>
+      <c r="B271" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4">
+      <c r="B273" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C273" s="4"/>
+      <c r="D273" s="4"/>
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274" t="s">
+        <v>1</v>
+      </c>
+      <c r="B274">
+        <v>1</v>
+      </c>
+      <c r="C274">
+        <v>-1</v>
+      </c>
+      <c r="D274">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275">
+        <v>-2</v>
+      </c>
+      <c r="B275">
+        <f>1-($A275^2)+B$274*EXP(-$A275*$A275)</f>
+        <v>-2.9816843611112658</v>
+      </c>
+      <c r="C275">
+        <f>1-($A275^2)+C$274*EXP(-$A275*$A275)</f>
+        <v>-3.0183156388887342</v>
+      </c>
+      <c r="D275">
+        <f>1-($A275^2)+D$274*EXP(-$A275*$A275)</f>
+        <v>-3.0549469166662027</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276">
+        <v>-1.9</v>
+      </c>
+      <c r="B276">
+        <f t="shared" ref="B276:D315" si="9">1-($A276^2)+B$274*EXP(-$A276*$A276)</f>
+        <v>-2.5829481531336493</v>
+      </c>
+      <c r="C276">
+        <f t="shared" si="9"/>
+        <v>-2.6370518468663504</v>
+      </c>
+      <c r="D276">
+        <f t="shared" si="9"/>
+        <v>-2.691155540599051</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277">
+        <v>-1.8</v>
+      </c>
+      <c r="B277">
+        <f t="shared" si="9"/>
+        <v>-2.200836104901013</v>
+      </c>
+      <c r="C277">
+        <f t="shared" si="9"/>
+        <v>-2.2791638950989874</v>
+      </c>
+      <c r="D277">
+        <f t="shared" si="9"/>
+        <v>-2.3574916852969614</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278">
+        <v>-1.7</v>
+      </c>
+      <c r="B278">
+        <f t="shared" si="9"/>
+        <v>-1.8344237873885165</v>
+      </c>
+      <c r="C278">
+        <f t="shared" si="9"/>
+        <v>-1.9455762126114828</v>
+      </c>
+      <c r="D278">
+        <f t="shared" si="9"/>
+        <v>-2.0567286378344489</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4">
+      <c r="A279">
+        <v>-1.6</v>
+      </c>
+      <c r="B279">
+        <f t="shared" si="9"/>
+        <v>-1.4826952595567007</v>
+      </c>
+      <c r="C279">
+        <f t="shared" si="9"/>
+        <v>-1.6373047404433003</v>
+      </c>
+      <c r="D279">
+        <f t="shared" si="9"/>
+        <v>-1.7919142213298995</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4">
+      <c r="A280">
+        <v>-1.5</v>
+      </c>
+      <c r="B280">
+        <f t="shared" si="9"/>
+        <v>-1.1446007754381358</v>
+      </c>
+      <c r="C280">
+        <f t="shared" si="9"/>
+        <v>-1.3553992245618642</v>
+      </c>
+      <c r="D280">
+        <f t="shared" si="9"/>
+        <v>-1.5661976736855929</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281">
+        <v>-1.4</v>
+      </c>
+      <c r="B281">
+        <f t="shared" si="9"/>
+        <v>-0.81914157907895468</v>
+      </c>
+      <c r="C281">
+        <f t="shared" si="9"/>
+        <v>-1.1008584209210448</v>
+      </c>
+      <c r="D281">
+        <f t="shared" si="9"/>
+        <v>-1.3825752627631349</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4">
+      <c r="A282">
+        <v>-1.3</v>
+      </c>
+      <c r="B282">
+        <f t="shared" si="9"/>
+        <v>-0.50548047600701096</v>
+      </c>
+      <c r="C282">
+        <f t="shared" si="9"/>
+        <v>-0.87451952399298938</v>
+      </c>
+      <c r="D282">
+        <f t="shared" si="9"/>
+        <v>-1.2435585719789679</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4">
+      <c r="A283">
+        <v>-1.2</v>
+      </c>
+      <c r="B283">
+        <f t="shared" si="9"/>
+        <v>-0.20307224131787818</v>
+      </c>
+      <c r="C283">
+        <f t="shared" si="9"/>
+        <v>-0.67692775868212174</v>
+      </c>
+      <c r="D283">
+        <f t="shared" si="9"/>
+        <v>-1.1507832760463652</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="B284">
+        <f t="shared" si="9"/>
+        <v>8.8197279429887143E-2</v>
+      </c>
+      <c r="C284">
+        <f t="shared" si="9"/>
+        <v>-0.50819727942988746</v>
+      </c>
+      <c r="D284">
+        <f t="shared" si="9"/>
+        <v>-1.1045918382896622</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285">
+        <v>-1</v>
+      </c>
+      <c r="B285">
+        <f t="shared" si="9"/>
+        <v>0.36787944117144233</v>
+      </c>
+      <c r="C285">
+        <f t="shared" si="9"/>
+        <v>-0.36787944117144233</v>
+      </c>
+      <c r="D285">
+        <f t="shared" si="9"/>
+        <v>-1.103638323514327</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286">
+        <v>-0.9</v>
+      </c>
+      <c r="B286">
+        <f t="shared" si="9"/>
+        <v>0.63485806622294105</v>
+      </c>
+      <c r="C286">
+        <f t="shared" si="9"/>
+        <v>-0.25485806622294116</v>
+      </c>
+      <c r="D286">
+        <f t="shared" si="9"/>
+        <v>-1.1445741986688234</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4">
+      <c r="A287">
+        <v>-0.8</v>
+      </c>
+      <c r="B287">
+        <f t="shared" si="9"/>
+        <v>0.88729242404304842</v>
+      </c>
+      <c r="C287">
+        <f t="shared" si="9"/>
+        <v>-0.16729242404304867</v>
+      </c>
+      <c r="D287">
+        <f t="shared" si="9"/>
+        <v>-1.2218772721291458</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288">
+        <v>-0.7</v>
+      </c>
+      <c r="B288">
+        <f t="shared" si="9"/>
+        <v>1.1226263941844161</v>
+      </c>
+      <c r="C288">
+        <f t="shared" si="9"/>
+        <v>-0.1026263941844161</v>
+      </c>
+      <c r="D288">
+        <f t="shared" si="9"/>
+        <v>-1.3278791825532483</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4">
+      <c r="A289">
+        <v>-0.6</v>
+      </c>
+      <c r="B289">
+        <f t="shared" si="9"/>
+        <v>1.3376763260710312</v>
+      </c>
+      <c r="C289">
+        <f t="shared" si="9"/>
+        <v>-5.7676326071031014E-2</v>
+      </c>
+      <c r="D289">
+        <f t="shared" si="9"/>
+        <v>-1.453028978213093</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4">
+      <c r="A290">
+        <v>-0.5</v>
+      </c>
+      <c r="B290">
+        <f t="shared" si="9"/>
+        <v>1.528800783071405</v>
+      </c>
+      <c r="C290">
+        <f t="shared" si="9"/>
+        <v>-2.8800783071404878E-2</v>
+      </c>
+      <c r="D290">
+        <f t="shared" si="9"/>
+        <v>-1.5864023492142145</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4">
+      <c r="A291">
+        <v>-0.4</v>
+      </c>
+      <c r="B291">
+        <f t="shared" si="9"/>
+        <v>1.6921437889662112</v>
+      </c>
+      <c r="C291">
+        <f t="shared" si="9"/>
+        <v>-1.2143788966211377E-2</v>
+      </c>
+      <c r="D291">
+        <f t="shared" si="9"/>
+        <v>-1.7164313668986342</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4">
+      <c r="A292">
+        <v>-0.3</v>
+      </c>
+      <c r="B292">
+        <f t="shared" si="9"/>
+        <v>1.8239311852712281</v>
+      </c>
+      <c r="C292">
+        <f t="shared" si="9"/>
+        <v>-3.9311852712281548E-3</v>
+      </c>
+      <c r="D292">
+        <f t="shared" si="9"/>
+        <v>-1.8317935558136842</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4">
+      <c r="A293">
+        <v>-0.2</v>
+      </c>
+      <c r="B293">
+        <f t="shared" si="9"/>
+        <v>1.920789439152323</v>
+      </c>
+      <c r="C293">
+        <f t="shared" si="9"/>
+        <v>-7.8943915232321249E-4</v>
+      </c>
+      <c r="D293">
+        <f t="shared" si="9"/>
+        <v>-1.9223683174569697</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4">
+      <c r="A294">
+        <v>-0.1</v>
+      </c>
+      <c r="B294">
+        <f t="shared" si="9"/>
+        <v>1.9800498337491681</v>
+      </c>
+      <c r="C294">
+        <f t="shared" si="9"/>
+        <v>-4.983374916811556E-5</v>
+      </c>
+      <c r="D294">
+        <f t="shared" si="9"/>
+        <v>-1.9801495012475041</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4">
+      <c r="A295">
+        <v>0</v>
+      </c>
+      <c r="B295">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="C295">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="D295">
+        <f t="shared" si="9"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4">
+      <c r="A296">
+        <v>0.1</v>
+      </c>
+      <c r="B296">
+        <f t="shared" si="9"/>
+        <v>1.9800498337491681</v>
+      </c>
+      <c r="C296">
+        <f t="shared" si="9"/>
+        <v>-4.983374916811556E-5</v>
+      </c>
+      <c r="D296">
+        <f t="shared" si="9"/>
+        <v>-1.9801495012475041</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4">
+      <c r="A297">
+        <v>0.2</v>
+      </c>
+      <c r="B297">
+        <f t="shared" si="9"/>
+        <v>1.920789439152323</v>
+      </c>
+      <c r="C297">
+        <f t="shared" si="9"/>
+        <v>-7.8943915232321249E-4</v>
+      </c>
+      <c r="D297">
+        <f t="shared" si="9"/>
+        <v>-1.9223683174569697</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4">
+      <c r="A298">
+        <v>0.3</v>
+      </c>
+      <c r="B298">
+        <f t="shared" si="9"/>
+        <v>1.8239311852712281</v>
+      </c>
+      <c r="C298">
+        <f t="shared" si="9"/>
+        <v>-3.9311852712281548E-3</v>
+      </c>
+      <c r="D298">
+        <f t="shared" si="9"/>
+        <v>-1.8317935558136842</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4">
+      <c r="A299">
+        <v>0.4</v>
+      </c>
+      <c r="B299">
+        <f t="shared" si="9"/>
+        <v>1.6921437889662112</v>
+      </c>
+      <c r="C299">
+        <f t="shared" si="9"/>
+        <v>-1.2143788966211377E-2</v>
+      </c>
+      <c r="D299">
+        <f t="shared" si="9"/>
+        <v>-1.7164313668986342</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4">
+      <c r="A300">
+        <v>0.5</v>
+      </c>
+      <c r="B300">
+        <f t="shared" si="9"/>
+        <v>1.528800783071405</v>
+      </c>
+      <c r="C300">
+        <f t="shared" si="9"/>
+        <v>-2.8800783071404878E-2</v>
+      </c>
+      <c r="D300">
+        <f t="shared" si="9"/>
+        <v>-1.5864023492142145</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4">
+      <c r="A301">
+        <v>0.6</v>
+      </c>
+      <c r="B301">
+        <f t="shared" si="9"/>
+        <v>1.3376763260710312</v>
+      </c>
+      <c r="C301">
+        <f t="shared" si="9"/>
+        <v>-5.7676326071031014E-2</v>
+      </c>
+      <c r="D301">
+        <f t="shared" si="9"/>
+        <v>-1.453028978213093</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4">
+      <c r="A302">
+        <v>0.7</v>
+      </c>
+      <c r="B302">
+        <f t="shared" si="9"/>
+        <v>1.1226263941844161</v>
+      </c>
+      <c r="C302">
+        <f t="shared" si="9"/>
+        <v>-0.1026263941844161</v>
+      </c>
+      <c r="D302">
+        <f t="shared" si="9"/>
+        <v>-1.3278791825532483</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4">
+      <c r="A303">
+        <v>0.8</v>
+      </c>
+      <c r="B303">
+        <f t="shared" si="9"/>
+        <v>0.88729242404304842</v>
+      </c>
+      <c r="C303">
+        <f t="shared" si="9"/>
+        <v>-0.16729242404304867</v>
+      </c>
+      <c r="D303">
+        <f t="shared" si="9"/>
+        <v>-1.2218772721291458</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4">
+      <c r="A304">
+        <v>0.9</v>
+      </c>
+      <c r="B304">
+        <f t="shared" si="9"/>
+        <v>0.63485806622294105</v>
+      </c>
+      <c r="C304">
+        <f t="shared" si="9"/>
+        <v>-0.25485806622294116</v>
+      </c>
+      <c r="D304">
+        <f t="shared" si="9"/>
+        <v>-1.1445741986688234</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4">
+      <c r="A305">
+        <v>1</v>
+      </c>
+      <c r="B305">
+        <f t="shared" si="9"/>
+        <v>0.36787944117144233</v>
+      </c>
+      <c r="C305">
+        <f t="shared" si="9"/>
+        <v>-0.36787944117144233</v>
+      </c>
+      <c r="D305">
+        <f t="shared" si="9"/>
+        <v>-1.103638323514327</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4">
+      <c r="A306">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B306">
+        <f t="shared" si="9"/>
+        <v>8.8197279429887143E-2</v>
+      </c>
+      <c r="C306">
+        <f t="shared" si="9"/>
+        <v>-0.50819727942988746</v>
+      </c>
+      <c r="D306">
+        <f t="shared" si="9"/>
+        <v>-1.1045918382896622</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4">
+      <c r="A307">
+        <v>1.2</v>
+      </c>
+      <c r="B307">
+        <f t="shared" si="9"/>
+        <v>-0.20307224131787818</v>
+      </c>
+      <c r="C307">
+        <f t="shared" si="9"/>
+        <v>-0.67692775868212174</v>
+      </c>
+      <c r="D307">
+        <f t="shared" si="9"/>
+        <v>-1.1507832760463652</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4">
+      <c r="A308">
+        <v>1.3</v>
+      </c>
+      <c r="B308">
+        <f t="shared" si="9"/>
+        <v>-0.50548047600701096</v>
+      </c>
+      <c r="C308">
+        <f t="shared" si="9"/>
+        <v>-0.87451952399298938</v>
+      </c>
+      <c r="D308">
+        <f t="shared" si="9"/>
+        <v>-1.2435585719789679</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4">
+      <c r="A309">
+        <v>1.4</v>
+      </c>
+      <c r="B309">
+        <f t="shared" si="9"/>
+        <v>-0.81914157907895468</v>
+      </c>
+      <c r="C309">
+        <f t="shared" si="9"/>
+        <v>-1.1008584209210448</v>
+      </c>
+      <c r="D309">
+        <f t="shared" si="9"/>
+        <v>-1.3825752627631349</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4">
+      <c r="A310">
+        <v>1.5</v>
+      </c>
+      <c r="B310">
+        <f t="shared" si="9"/>
+        <v>-1.1446007754381358</v>
+      </c>
+      <c r="C310">
+        <f t="shared" si="9"/>
+        <v>-1.3553992245618642</v>
+      </c>
+      <c r="D310">
+        <f t="shared" si="9"/>
+        <v>-1.5661976736855929</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4">
+      <c r="A311">
+        <v>1.6</v>
+      </c>
+      <c r="B311">
+        <f t="shared" si="9"/>
+        <v>-1.4826952595567007</v>
+      </c>
+      <c r="C311">
+        <f t="shared" si="9"/>
+        <v>-1.6373047404433003</v>
+      </c>
+      <c r="D311">
+        <f t="shared" si="9"/>
+        <v>-1.7919142213298995</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4">
+      <c r="A312">
+        <v>1.7</v>
+      </c>
+      <c r="B312">
+        <f t="shared" si="9"/>
+        <v>-1.8344237873885165</v>
+      </c>
+      <c r="C312">
+        <f t="shared" si="9"/>
+        <v>-1.9455762126114828</v>
+      </c>
+      <c r="D312">
+        <f t="shared" si="9"/>
+        <v>-2.0567286378344489</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4">
+      <c r="A313">
+        <v>1.8</v>
+      </c>
+      <c r="B313">
+        <f t="shared" si="9"/>
+        <v>-2.200836104901013</v>
+      </c>
+      <c r="C313">
+        <f t="shared" si="9"/>
+        <v>-2.2791638950989874</v>
+      </c>
+      <c r="D313">
+        <f t="shared" si="9"/>
+        <v>-2.3574916852969614</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4">
+      <c r="A314">
+        <v>1.9</v>
+      </c>
+      <c r="B314">
+        <f t="shared" si="9"/>
+        <v>-2.5829481531336493</v>
+      </c>
+      <c r="C314">
+        <f t="shared" si="9"/>
+        <v>-2.6370518468663504</v>
+      </c>
+      <c r="D314">
+        <f t="shared" si="9"/>
+        <v>-2.691155540599051</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4">
+      <c r="A315">
+        <v>2</v>
+      </c>
+      <c r="B315">
+        <f t="shared" si="9"/>
+        <v>-2.9816843611112658</v>
+      </c>
+      <c r="C315">
+        <f t="shared" si="9"/>
+        <v>-3.0183156388887342</v>
+      </c>
+      <c r="D315">
+        <f t="shared" si="9"/>
+        <v>-3.0549469166662027</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B273:D273"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
@@ -16121,4 +18695,423 @@
   </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69D36FDF-279F-9041-B29C-3E803722C1EA}">
+  <dimension ref="A1:E45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14">
+        <v>0.3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <f>$B$16+1/6*($B$17+2*$B$18+2*$B$19+$B$20)</f>
+        <v>3.0831030620757414</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>0.1</v>
+      </c>
+      <c r="E16">
+        <f t="shared" ref="E16:E45" si="0">$B$16+1/6*($B$17+2*$B$18+2*$B$19+$B$20)</f>
+        <v>3.0831030620757414</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17">
+        <f>((B15)^2)*((B16^2))*0.3</f>
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0.2</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>3.0831030620757414</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18">
+        <f>(($B$15+1/2*$B$14)^2*($B$16+1/2*B17)^2)*$B$14</f>
+        <v>6.0749999999999992E-2</v>
+      </c>
+      <c r="D18">
+        <v>0.3</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>3.0831030620757414</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19">
+        <f>(($B$15+1/2*$B$14)^2*($B$16+1/2*B18)^2)*$B$14</f>
+        <v>6.1986415324218738E-2</v>
+      </c>
+      <c r="D19">
+        <v>0.4</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>3.0831030620757414</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20">
+        <f>(B15+B14)^2*(B16+B19)^2*B14</f>
+        <v>0.25314554180601156</v>
+      </c>
+      <c r="D20">
+        <v>0.5</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>3.0831030620757414</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="D21">
+        <v>0.6</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>3.0831030620757414</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="D22">
+        <v>0.7</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>3.0831030620757414</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="D23">
+        <v>0.8</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>3.0831030620757414</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="D24">
+        <v>0.9</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>3.0831030620757414</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>3.0831030620757414</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="D26">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>3.0831030620757414</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="D27">
+        <v>1.2</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>3.0831030620757414</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="D28">
+        <v>1.3</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>3.0831030620757414</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="D29">
+        <v>1.4</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>3.0831030620757414</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="D30">
+        <v>1.5</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>3.0831030620757414</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="D31">
+        <v>1.6</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>3.0831030620757414</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="D32">
+        <v>1.7</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>3.0831030620757414</v>
+      </c>
+    </row>
+    <row r="33" spans="4:5">
+      <c r="D33">
+        <v>1.8</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>3.0831030620757414</v>
+      </c>
+    </row>
+    <row r="34" spans="4:5">
+      <c r="D34">
+        <v>1.9</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>3.0831030620757414</v>
+      </c>
+    </row>
+    <row r="35" spans="4:5">
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>3.0831030620757414</v>
+      </c>
+    </row>
+    <row r="36" spans="4:5">
+      <c r="D36">
+        <v>2.1</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>3.0831030620757414</v>
+      </c>
+    </row>
+    <row r="37" spans="4:5">
+      <c r="D37">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>3.0831030620757414</v>
+      </c>
+    </row>
+    <row r="38" spans="4:5">
+      <c r="D38">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>3.0831030620757414</v>
+      </c>
+    </row>
+    <row r="39" spans="4:5">
+      <c r="D39">
+        <v>2.4</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>3.0831030620757414</v>
+      </c>
+    </row>
+    <row r="40" spans="4:5">
+      <c r="D40">
+        <v>2.5</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>3.0831030620757414</v>
+      </c>
+    </row>
+    <row r="41" spans="4:5">
+      <c r="D41">
+        <v>2.6</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>3.0831030620757414</v>
+      </c>
+    </row>
+    <row r="42" spans="4:5">
+      <c r="D42">
+        <v>2.7</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="0"/>
+        <v>3.0831030620757414</v>
+      </c>
+    </row>
+    <row r="43" spans="4:5">
+      <c r="D43">
+        <v>2.8</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="0"/>
+        <v>3.0831030620757414</v>
+      </c>
+    </row>
+    <row r="44" spans="4:5">
+      <c r="D44">
+        <v>2.9</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="0"/>
+        <v>3.0831030620757414</v>
+      </c>
+    </row>
+    <row r="45" spans="4:5">
+      <c r="D45">
+        <v>3</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="0"/>
+        <v>3.0831030620757414</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/chapter1.xlsx
+++ b/chapter1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeandaniel/Documents/GitHub/numerical_approx_methods/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2393D3D7-293C-754E-9681-05F0D9C97922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D7D21C-170D-934C-8D2A-A53453194B82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4800" yWindow="2300" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{229481EE-D526-4287-B445-7343DE9ED797}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="96">
   <si>
     <t>lagrange interpolation</t>
   </si>
@@ -322,6 +322,9 @@
   </si>
   <si>
     <t>RK</t>
+  </si>
+  <si>
+    <t>xn</t>
   </si>
 </sst>
 </file>
@@ -18699,10 +18702,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69D36FDF-279F-9041-B29C-3E803722C1EA}">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -18786,7 +18789,7 @@
         <v>0.3</v>
       </c>
       <c r="D14" t="s">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="E14" t="s">
         <v>94</v>
@@ -18814,15 +18817,8 @@
       <c r="B16">
         <v>3</v>
       </c>
-      <c r="D16">
-        <v>0.1</v>
-      </c>
-      <c r="E16">
-        <f t="shared" ref="E16:E45" si="0">$B$16+1/6*($B$17+2*$B$18+2*$B$19+$B$20)</f>
-        <v>3.0831030620757414</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>76</v>
       </c>
@@ -18830,15 +18826,8 @@
         <f>((B15)^2)*((B16^2))*0.3</f>
         <v>0</v>
       </c>
-      <c r="D17">
-        <v>0.2</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="0"/>
-        <v>3.0831030620757414</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>78</v>
       </c>
@@ -18846,15 +18835,8 @@
         <f>(($B$15+1/2*$B$14)^2*($B$16+1/2*B17)^2)*$B$14</f>
         <v>6.0749999999999992E-2</v>
       </c>
-      <c r="D18">
-        <v>0.3</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="0"/>
-        <v>3.0831030620757414</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>79</v>
       </c>
@@ -18862,253 +18844,14 @@
         <f>(($B$15+1/2*$B$14)^2*($B$16+1/2*B18)^2)*$B$14</f>
         <v>6.1986415324218738E-2</v>
       </c>
-      <c r="D19">
-        <v>0.4</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="0"/>
-        <v>3.0831030620757414</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>80</v>
       </c>
       <c r="B20">
         <f>(B15+B14)^2*(B16+B19)^2*B14</f>
         <v>0.25314554180601156</v>
-      </c>
-      <c r="D20">
-        <v>0.5</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="0"/>
-        <v>3.0831030620757414</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="D21">
-        <v>0.6</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="0"/>
-        <v>3.0831030620757414</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="D22">
-        <v>0.7</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="0"/>
-        <v>3.0831030620757414</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="D23">
-        <v>0.8</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="0"/>
-        <v>3.0831030620757414</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="D24">
-        <v>0.9</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="0"/>
-        <v>3.0831030620757414</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="0"/>
-        <v>3.0831030620757414</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="D26">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E26">
-        <f t="shared" si="0"/>
-        <v>3.0831030620757414</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="D27">
-        <v>1.2</v>
-      </c>
-      <c r="E27">
-        <f t="shared" si="0"/>
-        <v>3.0831030620757414</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="D28">
-        <v>1.3</v>
-      </c>
-      <c r="E28">
-        <f t="shared" si="0"/>
-        <v>3.0831030620757414</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="D29">
-        <v>1.4</v>
-      </c>
-      <c r="E29">
-        <f t="shared" si="0"/>
-        <v>3.0831030620757414</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="D30">
-        <v>1.5</v>
-      </c>
-      <c r="E30">
-        <f t="shared" si="0"/>
-        <v>3.0831030620757414</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="D31">
-        <v>1.6</v>
-      </c>
-      <c r="E31">
-        <f t="shared" si="0"/>
-        <v>3.0831030620757414</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="D32">
-        <v>1.7</v>
-      </c>
-      <c r="E32">
-        <f t="shared" si="0"/>
-        <v>3.0831030620757414</v>
-      </c>
-    </row>
-    <row r="33" spans="4:5">
-      <c r="D33">
-        <v>1.8</v>
-      </c>
-      <c r="E33">
-        <f t="shared" si="0"/>
-        <v>3.0831030620757414</v>
-      </c>
-    </row>
-    <row r="34" spans="4:5">
-      <c r="D34">
-        <v>1.9</v>
-      </c>
-      <c r="E34">
-        <f t="shared" si="0"/>
-        <v>3.0831030620757414</v>
-      </c>
-    </row>
-    <row r="35" spans="4:5">
-      <c r="D35">
-        <v>2</v>
-      </c>
-      <c r="E35">
-        <f t="shared" si="0"/>
-        <v>3.0831030620757414</v>
-      </c>
-    </row>
-    <row r="36" spans="4:5">
-      <c r="D36">
-        <v>2.1</v>
-      </c>
-      <c r="E36">
-        <f t="shared" si="0"/>
-        <v>3.0831030620757414</v>
-      </c>
-    </row>
-    <row r="37" spans="4:5">
-      <c r="D37">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="E37">
-        <f t="shared" si="0"/>
-        <v>3.0831030620757414</v>
-      </c>
-    </row>
-    <row r="38" spans="4:5">
-      <c r="D38">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="E38">
-        <f t="shared" si="0"/>
-        <v>3.0831030620757414</v>
-      </c>
-    </row>
-    <row r="39" spans="4:5">
-      <c r="D39">
-        <v>2.4</v>
-      </c>
-      <c r="E39">
-        <f t="shared" si="0"/>
-        <v>3.0831030620757414</v>
-      </c>
-    </row>
-    <row r="40" spans="4:5">
-      <c r="D40">
-        <v>2.5</v>
-      </c>
-      <c r="E40">
-        <f t="shared" si="0"/>
-        <v>3.0831030620757414</v>
-      </c>
-    </row>
-    <row r="41" spans="4:5">
-      <c r="D41">
-        <v>2.6</v>
-      </c>
-      <c r="E41">
-        <f t="shared" si="0"/>
-        <v>3.0831030620757414</v>
-      </c>
-    </row>
-    <row r="42" spans="4:5">
-      <c r="D42">
-        <v>2.7</v>
-      </c>
-      <c r="E42">
-        <f t="shared" si="0"/>
-        <v>3.0831030620757414</v>
-      </c>
-    </row>
-    <row r="43" spans="4:5">
-      <c r="D43">
-        <v>2.8</v>
-      </c>
-      <c r="E43">
-        <f t="shared" si="0"/>
-        <v>3.0831030620757414</v>
-      </c>
-    </row>
-    <row r="44" spans="4:5">
-      <c r="D44">
-        <v>2.9</v>
-      </c>
-      <c r="E44">
-        <f t="shared" si="0"/>
-        <v>3.0831030620757414</v>
-      </c>
-    </row>
-    <row r="45" spans="4:5">
-      <c r="D45">
-        <v>3</v>
-      </c>
-      <c r="E45">
-        <f t="shared" si="0"/>
-        <v>3.0831030620757414</v>
       </c>
     </row>
   </sheetData>
